--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -66,9 +66,6 @@
   <si>
     <t>Wooshing sound
 Metallic sound</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
   </si>
   <si>
     <t>PlayerDamaged</t>
@@ -181,6 +178,9 @@
     <t>Bubble sound</t>
   </si>
   <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
     <t>LavaBurn</t>
   </si>
   <si>
@@ -241,12 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
@@ -267,6 +261,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC4125"/>
+        <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
   </fills>
@@ -301,8 +301,14 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -313,34 +319,28 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -732,8 +732,8 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -762,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
@@ -796,362 +796,362 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -1176,20 +1176,20 @@
       <c r="Z16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>50</v>
+      <c r="A17" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
+      <c r="E17" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -1214,20 +1214,20 @@
       <c r="Z17" s="21"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>50</v>
+      <c r="A18" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
+      <c r="E18" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
